--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -38,6 +38,15 @@
     <t>[Воронежский Литературно-Переводческий Университет]</t>
   </si>
   <si>
+    <t>PHYSICS</t>
+  </si>
+  <si>
+    <t>4.48</t>
+  </si>
+  <si>
+    <t>[Московский Выдуманный Университет, Московский Придуманный Институт]</t>
+  </si>
+  <si>
     <t>MATHEMATICS</t>
   </si>
   <si>
@@ -51,15 +60,6 @@
   </si>
   <si>
     <t>[Московский Государственный Медицинский Университет, Тамбовский Университет Медицины, Самарский Медицинский Институт]</t>
-  </si>
-  <si>
-    <t>PHYSICS</t>
-  </si>
-  <si>
-    <t>4.48</t>
-  </si>
-  <si>
-    <t>[Московский Выдуманный Университет, Московский Придуманный Институт]</t>
   </si>
 </sst>
 </file>
@@ -155,30 +155,30 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="D4" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -192,10 +192,10 @@
         <v>14</v>
       </c>
       <c r="C5" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="D5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
